--- a/Ricardini/[BurndownSprint2]groep5.xlsx
+++ b/Ricardini/[BurndownSprint2]groep5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\GitHub\Project2Groep5\Ricardini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -384,7 +384,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,17 +1360,17 @@
         <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E24" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">

--- a/Ricardini/[BurndownSprint2]groep5.xlsx
+++ b/Ricardini/[BurndownSprint2]groep5.xlsx
@@ -387,7 +387,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,16 +1380,18 @@
       <c r="B25" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3">
+        <v>8</v>
+      </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">

--- a/Ricardini/[BurndownSprint2]groep5.xlsx
+++ b/Ricardini/[BurndownSprint2]groep5.xlsx
@@ -277,6 +277,12 @@
                 <c:pt idx="7">
                   <c:v>42760</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42762</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -308,6 +314,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -355,6 +364,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,7 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1384,8 +1399,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E25" s="3">
         <v>9</v>
@@ -1395,15 +1409,23 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="2">
+        <v>42761</v>
+      </c>
+      <c r="B26" s="3">
+        <v>9</v>
+      </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>42762</v>
+      </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>

--- a/Ricardini/[BurndownSprint2]groep5.xlsx
+++ b/Ricardini/[BurndownSprint2]groep5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" r:id="rId1"/>
@@ -317,6 +317,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1101,7 +1104,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" ref="D21:D25" si="0">D20-B21</f>
+        <f t="shared" ref="D21:D24" si="0">D20-B21</f>
         <v>16</v>
       </c>
       <c r="E21" s="3">
@@ -1415,22 +1418,32 @@
       <c r="B26" s="3">
         <v>9</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
       <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42762</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>

--- a/Ricardini/[BurndownSprint2]groep5.xlsx
+++ b/Ricardini/[BurndownSprint2]groep5.xlsx
@@ -406,6 +406,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,33 +1422,39 @@
         <v>42761</v>
       </c>
       <c r="B26" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>8</v>
+      </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42762</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">

--- a/Ricardini/[BurndownSprint2]groep5.xlsx
+++ b/Ricardini/[BurndownSprint2]groep5.xlsx
@@ -314,10 +314,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
         <v>9</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>8</v>
